--- a/test/alarm.xlsx
+++ b/test/alarm.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,990 +463,3784 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AWSResilienceHub-EKSDeploymentHighCpuUtilizationAlarm-2024-01-01_Backbase_060527ba-8fc6-45d6-9355-6a1bc1d6e3ba</t>
+          <t>***CRITICAL*** prod HA-Urbis - UNHEALTHY instances in BhUrbisHaATMapiApiTg TargetGroup</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>arn:aws:cloudwatch:eu-west-1:132405888043:alarm:AWSResilienceHub-EKSDeploymentHighCpuUtilizationAlarm-2024-01-01_Backbase_060527ba-8fc6-45d6-9355-6a1bc1d6e3ba</t>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:***CRITICAL*** prod HA-Urbis - UNHEALTHY instances in BhUrbisHaATMapiApiTg TargetGroup</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>An alarm by AWS Resilience Hub that reports when the pod's average CPU utilization for a deployment exceeds 120 percent of the reserved CPU capacity per pod.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>Alarms when none healthy instances in prodBhUrbisHaATMapiApiTg</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>AWS/ApplicationELB</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024-03-25T10:12:25.512000+00:00</t>
+          <t>2024-08-15T23:11:56.735000+00:00</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AWSResilienceHub-EKSDeploymentHighCpuUtilizationAlarm-2024-01-01_Backbase_19b3a3db-c2c8-4a68-9be3-b2183feba561</t>
+          <t>***CRITICAL*** prod HA-Urbis - UNHEALTHY instances in BhUrbisHaAccountClosureApiTg TargetGroup</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>arn:aws:cloudwatch:eu-west-1:132405888043:alarm:AWSResilienceHub-EKSDeploymentHighCpuUtilizationAlarm-2024-01-01_Backbase_19b3a3db-c2c8-4a68-9be3-b2183feba561</t>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:***CRITICAL*** prod HA-Urbis - UNHEALTHY instances in BhUrbisHaAccountClosureApiTg TargetGroup</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>An alarm by AWS Resilience Hub that reports when the pod's average CPU utilization for a deployment exceeds 120 percent of the reserved CPU capacity per pod.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>Alarms when none healthy instances in prodBhUrbisHaAccountClosureApiTg</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>AWS/ApplicationELB</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024-03-25T10:33:14.929000+00:00</t>
+          <t>2024-08-15T23:12:23.413000+00:00</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AWSResilienceHub-EKSDeploymentHighCpuUtilizationAlarm-2024-01-01_Backbase_4dec783d-b221-430c-8aff-2501944a7946</t>
+          <t>***CRITICAL*** prod HA-Urbis - UNHEALTHY instances in BhUrbisHaAccountsApiTg TargetGroup</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>arn:aws:cloudwatch:eu-west-1:132405888043:alarm:AWSResilienceHub-EKSDeploymentHighCpuUtilizationAlarm-2024-01-01_Backbase_4dec783d-b221-430c-8aff-2501944a7946</t>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:***CRITICAL*** prod HA-Urbis - UNHEALTHY instances in BhUrbisHaAccountsApiTg TargetGroup</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>An alarm by AWS Resilience Hub that reports when the pod's average CPU utilization for a deployment exceeds 120 percent of the reserved CPU capacity per pod.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>Alarms when none healthy instances in prodBhUrbisHaAccountsApiTg</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>AWS/ApplicationELB</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024-03-25T10:12:25.235000+00:00</t>
+          <t>2024-08-15T23:11:30.260000+00:00</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AWSResilienceHub-EKSDeploymentHighCpuUtilizationAlarm-2024-01-01_Backbase_59041077-d489-4688-93fc-afa9f20e00fa</t>
+          <t>***CRITICAL*** prod HA-Urbis - UNHEALTHY instances in BhUrbisHaCabacApiTg TargetGroup</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>arn:aws:cloudwatch:eu-west-1:132405888043:alarm:AWSResilienceHub-EKSDeploymentHighCpuUtilizationAlarm-2024-01-01_Backbase_59041077-d489-4688-93fc-afa9f20e00fa</t>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:***CRITICAL*** prod HA-Urbis - UNHEALTHY instances in BhUrbisHaCabacApiTg TargetGroup</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>An alarm by AWS Resilience Hub that reports when the pod's average CPU utilization for a deployment exceeds 120 percent of the reserved CPU capacity per pod.</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>Alarms when none healthy instances in prodBhUrbisHaCabacApiTg</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>AWS/ApplicationELB</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024-03-25T10:12:25.379000+00:00</t>
+          <t>2024-08-15T23:12:27.887000+00:00</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AWSResilienceHub-EKSDeploymentHighCpuUtilizationAlarm-2024-01-01_Backbase_642ebf59-af28-41b8-bcb6-6ec313287c1e</t>
+          <t>***CRITICAL*** prod HA-Urbis - UNHEALTHY instances in BhUrbisHaCashwasteApiTg TargetGroup</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>arn:aws:cloudwatch:eu-west-1:132405888043:alarm:AWSResilienceHub-EKSDeploymentHighCpuUtilizationAlarm-2024-01-01_Backbase_642ebf59-af28-41b8-bcb6-6ec313287c1e</t>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:***CRITICAL*** prod HA-Urbis - UNHEALTHY instances in BhUrbisHaCashwasteApiTg TargetGroup</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>An alarm by AWS Resilience Hub that reports when the pod's average CPU utilization for a deployment exceeds 120 percent of the reserved CPU capacity per pod.</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>Alarms when none healthy instances in prodBhUrbisHaCashwasteApiTg</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>AWS/ApplicationELB</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024-03-25T10:12:25.472000+00:00</t>
+          <t>2024-08-15T23:12:55.627000+00:00</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AWSResilienceHub-EKSDeploymentHighCpuUtilizationAlarm-2024-01-01_Backbase_6b2ce093-2746-45c0-b853-8b8bbb5422fc</t>
+          <t>***CRITICAL*** prod HA-Urbis - UNHEALTHY instances in BhUrbisHaCashwasteReverseApiTg TargetGroup</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>arn:aws:cloudwatch:eu-west-1:132405888043:alarm:AWSResilienceHub-EKSDeploymentHighCpuUtilizationAlarm-2024-01-01_Backbase_6b2ce093-2746-45c0-b853-8b8bbb5422fc</t>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:***CRITICAL*** prod HA-Urbis - UNHEALTHY instances in BhUrbisHaCashwasteReverseApiTg TargetGroup</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>An alarm by AWS Resilience Hub that reports when the pod's average CPU utilization for a deployment exceeds 120 percent of the reserved CPU capacity per pod.</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>Alarms when none healthy instances in prodBhUrbisHaCashwasteReverseApiTg</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>AWS/ApplicationELB</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024-03-25T10:12:25.504000+00:00</t>
+          <t>2024-09-26T20:54:46.254000+00:00</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AWSResilienceHub-EKSDeploymentHighCpuUtilizationAlarm-2024-01-01_Backbase_9aedbfd6-97d4-491c-b120-02c42ea1395e</t>
+          <t>***CRITICAL*** prod HA-Urbis - UNHEALTHY instances in BhUrbisHaChargesApiTg TargetGroup</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>arn:aws:cloudwatch:eu-west-1:132405888043:alarm:AWSResilienceHub-EKSDeploymentHighCpuUtilizationAlarm-2024-01-01_Backbase_9aedbfd6-97d4-491c-b120-02c42ea1395e</t>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:***CRITICAL*** prod HA-Urbis - UNHEALTHY instances in BhUrbisHaChargesApiTg TargetGroup</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>An alarm by AWS Resilience Hub that reports when the pod's average CPU utilization for a deployment exceeds 120 percent of the reserved CPU capacity per pod.</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+          <t>Alarms when none healthy instances in prodBhUrbisHaChargesApiTg</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>AWS/ApplicationELB</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024-03-25T10:12:25.404000+00:00</t>
+          <t>2024-08-15T23:11:01.854000+00:00</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AWSResilienceHub-EKSDeploymentHighCpuUtilizationAlarm-2024-01-01_Backbase_a1d74f8e-dea5-4c9f-b901-63cbe46c1224</t>
+          <t>***CRITICAL*** prod HA-Urbis - UNHEALTHY instances in BhUrbisHaCleanPymntSngleCApiTg TargetGroup</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>arn:aws:cloudwatch:eu-west-1:132405888043:alarm:AWSResilienceHub-EKSDeploymentHighCpuUtilizationAlarm-2024-01-01_Backbase_a1d74f8e-dea5-4c9f-b901-63cbe46c1224</t>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:***CRITICAL*** prod HA-Urbis - UNHEALTHY instances in BhUrbisHaCleanPymntSngleCApiTg TargetGroup</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>An alarm by AWS Resilience Hub that reports when the pod's average CPU utilization for a deployment exceeds 120 percent of the reserved CPU capacity per pod.</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>Alarms when none healthy instances in prodBhUrbisHaCleanPymntSngleCApiTg</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>AWS/ApplicationELB</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024-03-25T10:12:25.327000+00:00</t>
+          <t>2024-08-15T23:13:29.411000+00:00</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AWSResilienceHub-EKSDeploymentHighCpuUtilizationAlarm-2024-01-01_Backbase_e37e3cf8-3f54-4313-bc60-9c6929c02e81</t>
+          <t>***CRITICAL*** prod HA-Urbis - UNHEALTHY instances in BhUrbisHaClientapiApiTg TargetGroup</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>arn:aws:cloudwatch:eu-west-1:132405888043:alarm:AWSResilienceHub-EKSDeploymentHighCpuUtilizationAlarm-2024-01-01_Backbase_e37e3cf8-3f54-4313-bc60-9c6929c02e81</t>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:***CRITICAL*** prod HA-Urbis - UNHEALTHY instances in BhUrbisHaClientapiApiTg TargetGroup</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>An alarm by AWS Resilience Hub that reports when the pod's average CPU utilization for a deployment exceeds 120 percent of the reserved CPU capacity per pod.</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+          <t>Alarms when none healthy instances in prodBhUrbisHaClientapiApiTg</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>AWS/ApplicationELB</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2024-03-25T10:12:25.571000+00:00</t>
+          <t>2024-08-15T23:11:54.154000+00:00</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>EventBridgeRuleChangesAlarm</t>
+          <t>***CRITICAL*** prod HA-Urbis - UNHEALTHY instances in BhUrbisHaHoldApiTg TargetGroup</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>arn:aws:cloudwatch:eu-west-1:132405888043:alarm:EventBridgeRuleChangesAlarm</t>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:***CRITICAL*** prod HA-Urbis - UNHEALTHY instances in BhUrbisHaHoldApiTg TargetGroup</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Alarm for enabling or disabling EventBridge rules</t>
+          <t>Alarms when none healthy instances in prodBhUrbisHaHoldApiTg</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CloudTrail/EventBridgeRule</t>
+          <t>AWS/ApplicationELB</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2024-09-17T05:43:11.464000+00:00</t>
+          <t>2024-08-15T23:13:12.586000+00:00</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>TCP: BenefitBankAPIRoute53Healthcheck3</t>
+          <t>***CRITICAL*** prod HA-Urbis - UNHEALTHY instances in BhUrbisHaINCashwAPIApiTg TargetGroup</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>arn:aws:cloudwatch:eu-west-1:132405888043:alarm:TCP: BenefitBankAPIRoute53Healthcheck3</t>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:***CRITICAL*** prod HA-Urbis - UNHEALTHY instances in BhUrbisHaINCashwAPIApiTg TargetGroup</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Alarm for Route53 Health Check</t>
+          <t>Alarms when none healthy instances in prodBhUrbisHaINCashwAPIApiTg</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Route53PrivateHealthCheck</t>
+          <t>AWS/ApplicationELB</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2024-07-06T09:26:06.588000+00:00</t>
+          <t>2024-08-15T23:12:43.469000+00:00</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>TargetTracking-table/Test-SQL-DMS-AlarmHigh-dc66eef1-c7c1-46a5-b319-456d37c2b532</t>
+          <t>***CRITICAL*** prod HA-Urbis - UNHEALTHY instances in BhUrbisHaReactivationAcctApiTg TargetGroup</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>arn:aws:cloudwatch:eu-west-1:132405888043:alarm:TargetTracking-table/Test-SQL-DMS-AlarmHigh-dc66eef1-c7c1-46a5-b319-456d37c2b532</t>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:***CRITICAL*** prod HA-Urbis - UNHEALTHY instances in BhUrbisHaReactivationAcctApiTg TargetGroup</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DO NOT EDIT OR DELETE. For TargetTrackingScaling policy arn:aws:autoscaling:eu-west-1:132405888043:scalingPolicy:a6b0e41f-bbb8-48fc-a987-5118e9f60e55:resource/dynamodb/table/Test-SQL-DMS:policyName/$Test-SQL-DMS-scaling-policy:createdBy/938cab3b-ad6b-477e-adcf-8e94d7b61d2c.</t>
+          <t>Alarms when none healthy instances in prodBhUrbisHaReactivationAcctApiTg</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>AWS/DynamoDB</t>
+          <t>AWS/ApplicationELB</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2024-03-05T08:47:19.198000+00:00</t>
+          <t>2024-08-15T23:11:52.713000+00:00</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>TargetTracking-table/Test-SQL-DMS-AlarmHigh-e0e37ed7-8faf-4930-b81c-44501600cac2</t>
+          <t>***CRITICAL*** prod HA-Urbis - UNHEALTHY instances in BhUrbisHaStandingOrderApiTg TargetGroup</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>arn:aws:cloudwatch:eu-west-1:132405888043:alarm:TargetTracking-table/Test-SQL-DMS-AlarmHigh-e0e37ed7-8faf-4930-b81c-44501600cac2</t>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:***CRITICAL*** prod HA-Urbis - UNHEALTHY instances in BhUrbisHaStandingOrderApiTg TargetGroup</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DO NOT EDIT OR DELETE. For TargetTrackingScaling policy arn:aws:autoscaling:eu-west-1:132405888043:scalingPolicy:2ade4f4c-17bf-43d5-a054-75552817a60e:resource/dynamodb/table/Test-SQL-DMS:policyName/$Test-SQL-DMS-scaling-policy:createdBy/8a6d1db7-5ed8-4803-8bd1-ed3fdd3d62ce.</t>
+          <t>Alarms when none healthy instances in prodBhUrbisHaStandingOrderApiTg</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>AWS/DynamoDB</t>
+          <t>AWS/ApplicationELB</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2024-03-05T08:48:34.218000+00:00</t>
+          <t>2024-08-15T23:11:54.611000+00:00</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>TargetTracking-table/Test-SQL-DMS-AlarmLow-9b5755a0-7f02-48c3-88a1-4eeb9b595afe</t>
+          <t>***CRITICAL*** prod HA-Urbis - UNHEALTHY instances in BhUrbisHaTermDepositApiTg TargetGroup</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>arn:aws:cloudwatch:eu-west-1:132405888043:alarm:TargetTracking-table/Test-SQL-DMS-AlarmLow-9b5755a0-7f02-48c3-88a1-4eeb9b595afe</t>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:***CRITICAL*** prod HA-Urbis - UNHEALTHY instances in BhUrbisHaTermDepositApiTg TargetGroup</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DO NOT EDIT OR DELETE. For TargetTrackingScaling policy arn:aws:autoscaling:eu-west-1:132405888043:scalingPolicy:a6b0e41f-bbb8-48fc-a987-5118e9f60e55:resource/dynamodb/table/Test-SQL-DMS:policyName/$Test-SQL-DMS-scaling-policy:createdBy/938cab3b-ad6b-477e-adcf-8e94d7b61d2c.</t>
+          <t>Alarms when none healthy instances in prodBhUrbisHaTermDepositApiTg</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>AWS/DynamoDB</t>
+          <t>AWS/ApplicationELB</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2024-03-05T08:48:06.091000+00:00</t>
+          <t>2024-08-15T23:12:47.057000+00:00</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TargetTracking-table/Test-SQL-DMS-AlarmLow-a33a06d3-898a-4424-8059-837f001e9102</t>
+          <t>***CRITICAL*** prod HA-Urbis - UNHEALTHY instances in BhUrbisHaTermDpstScheduleApiTg TargetGroup</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>arn:aws:cloudwatch:eu-west-1:132405888043:alarm:TargetTracking-table/Test-SQL-DMS-AlarmLow-a33a06d3-898a-4424-8059-837f001e9102</t>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:***CRITICAL*** prod HA-Urbis - UNHEALTHY instances in BhUrbisHaTermDpstScheduleApiTg TargetGroup</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DO NOT EDIT OR DELETE. For TargetTrackingScaling policy arn:aws:autoscaling:eu-west-1:132405888043:scalingPolicy:2ade4f4c-17bf-43d5-a054-75552817a60e:resource/dynamodb/table/Test-SQL-DMS:policyName/$Test-SQL-DMS-scaling-policy:createdBy/8a6d1db7-5ed8-4803-8bd1-ed3fdd3d62ce.</t>
+          <t>Alarms when none healthy instances in prodBhUrbisHaTermDpstScheduleApiTg</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>AWS/DynamoDB</t>
+          <t>AWS/ApplicationELB</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2024-03-05T08:47:42.550000+00:00</t>
+          <t>2024-08-15T23:12:17.436000+00:00</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>TargetTracking-table/Test-SQL-DMS-ProvisionedCapacityHigh-4dd4f4fb-a7ee-4709-b175-8e2e8b388593</t>
+          <t>***CRITICAL*** prod iLa-Jor HA-Urbis ATMapi API is DOWN - UNHEALTHY instances in JorUrbisHaATMapiApiTg TG</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>arn:aws:cloudwatch:eu-west-1:132405888043:alarm:TargetTracking-table/Test-SQL-DMS-ProvisionedCapacityHigh-4dd4f4fb-a7ee-4709-b175-8e2e8b388593</t>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:***CRITICAL*** prod iLa-Jor HA-Urbis ATMapi API is DOWN - UNHEALTHY instances in JorUrbisHaATMapiApiTg TG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DO NOT EDIT OR DELETE. For TargetTrackingScaling policy arn:aws:autoscaling:eu-west-1:132405888043:scalingPolicy:a6b0e41f-bbb8-48fc-a987-5118e9f60e55:resource/dynamodb/table/Test-SQL-DMS:policyName/$Test-SQL-DMS-scaling-policy:createdBy/938cab3b-ad6b-477e-adcf-8e94d7b61d2c.</t>
+          <t>Alarms when none healthy instances in prodJorUrbisHaATMapiApiTg</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>AWS/DynamoDB</t>
+          <t>AWS/ApplicationELB</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2024-03-05T08:54:06.919000+00:00</t>
+          <t>2024-08-15T23:38:24.717000+00:00</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TargetTracking-table/Test-SQL-DMS-ProvisionedCapacityHigh-df0da55f-cb7d-4f5e-9628-b6a61f187343</t>
+          <t>***CRITICAL*** prod iLa-Jor HA-Urbis AccountClosure API is DOWN - UNHEALTHY instances in JorUrbisHaAccountClosureApiTg TG</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>arn:aws:cloudwatch:eu-west-1:132405888043:alarm:TargetTracking-table/Test-SQL-DMS-ProvisionedCapacityHigh-df0da55f-cb7d-4f5e-9628-b6a61f187343</t>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:***CRITICAL*** prod iLa-Jor HA-Urbis AccountClosure API is DOWN - UNHEALTHY instances in JorUrbisHaAccountClosureApiTg TG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DO NOT EDIT OR DELETE. For TargetTrackingScaling policy arn:aws:autoscaling:eu-west-1:132405888043:scalingPolicy:2ade4f4c-17bf-43d5-a054-75552817a60e:resource/dynamodb/table/Test-SQL-DMS:policyName/$Test-SQL-DMS-scaling-policy:createdBy/8a6d1db7-5ed8-4803-8bd1-ed3fdd3d62ce.</t>
+          <t>Alarms when none healthy instances in prodJorUrbisHaAccountClosureApiTg</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>AWS/DynamoDB</t>
+          <t>AWS/ApplicationELB</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2024-03-05T08:53:28.151000+00:00</t>
+          <t>2024-08-15T23:38:25.336000+00:00</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>TargetTracking-table/Test-SQL-DMS-ProvisionedCapacityLow-cbb20673-dae1-48bc-af68-9b51f464cd99</t>
+          <t>***CRITICAL*** prod iLa-Jor HA-Urbis Accounts API is DOWN - UNHEALTHY instances in JorUrbisHaAccountsApiTg TG</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>arn:aws:cloudwatch:eu-west-1:132405888043:alarm:TargetTracking-table/Test-SQL-DMS-ProvisionedCapacityLow-cbb20673-dae1-48bc-af68-9b51f464cd99</t>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:***CRITICAL*** prod iLa-Jor HA-Urbis Accounts API is DOWN - UNHEALTHY instances in JorUrbisHaAccountsApiTg TG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DO NOT EDIT OR DELETE. For TargetTrackingScaling policy arn:aws:autoscaling:eu-west-1:132405888043:scalingPolicy:a6b0e41f-bbb8-48fc-a987-5118e9f60e55:resource/dynamodb/table/Test-SQL-DMS:policyName/$Test-SQL-DMS-scaling-policy:createdBy/938cab3b-ad6b-477e-adcf-8e94d7b61d2c.</t>
+          <t>Alarms when none healthy instances in prodJorUrbisHaAccountsApiTg</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>AWS/DynamoDB</t>
+          <t>AWS/ApplicationELB</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2024-03-05T08:48:14.058000+00:00</t>
+          <t>2024-08-15T23:38:54.184000+00:00</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>TargetTracking-table/Test-SQL-DMS-ProvisionedCapacityLow-fe0760d9-f6bb-4e30-be2a-2472264a30b1</t>
+          <t>***CRITICAL*** prod iLa-Jor HA-Urbis CashwasteReverse API is DOWN - UNHEALTHY instances in JorUrbisHaCashwasteReverseApiTg TG</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>arn:aws:cloudwatch:eu-west-1:132405888043:alarm:TargetTracking-table/Test-SQL-DMS-ProvisionedCapacityLow-fe0760d9-f6bb-4e30-be2a-2472264a30b1</t>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:***CRITICAL*** prod iLa-Jor HA-Urbis CashwasteReverse API is DOWN - UNHEALTHY instances in JorUrbisHaCashwasteReverseApiTg TG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DO NOT EDIT OR DELETE. For TargetTrackingScaling policy arn:aws:autoscaling:eu-west-1:132405888043:scalingPolicy:2ade4f4c-17bf-43d5-a054-75552817a60e:resource/dynamodb/table/Test-SQL-DMS:policyName/$Test-SQL-DMS-scaling-policy:createdBy/8a6d1db7-5ed8-4803-8bd1-ed3fdd3d62ce.</t>
+          <t>Alarms when none healthy instances in prodJorUrbisHaCashwasteReverseApiTg</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>AWS/DynamoDB</t>
+          <t>AWS/ApplicationELB</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2024-03-05T08:47:41.412000+00:00</t>
+          <t>2024-08-15T23:38:35.380000+00:00</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>TargetTracking-table/gph-reminder-AlarmHigh-65ed7ddc-5ee5-4047-9c4e-987ec296e077</t>
+          <t>***CRITICAL*** prod iLa-Jor HA-Urbis Charges API is DOWN - UNHEALTHY instances in JorUrbisHaChargesApiTg TG</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>arn:aws:cloudwatch:eu-west-1:132405888043:alarm:TargetTracking-table/gph-reminder-AlarmHigh-65ed7ddc-5ee5-4047-9c4e-987ec296e077</t>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:***CRITICAL*** prod iLa-Jor HA-Urbis Charges API is DOWN - UNHEALTHY instances in JorUrbisHaChargesApiTg TG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DO NOT EDIT OR DELETE. For TargetTrackingScaling policy arn:aws:autoscaling:eu-west-1:132405888043:scalingPolicy:45eb39d5-10f3-4acb-8c3a-7961d3bf7b7d:resource/dynamodb/table/gph-reminder:policyName/$gph-reminder-scaling-policy:createdBy/1831fa40-899f-40d5-876b-34b38f6b9b8a.</t>
+          <t>Alarms when none healthy instances in prodJorUrbisHaChargesApiTg</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>AWS/DynamoDB</t>
+          <t>AWS/ApplicationELB</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2024-07-10T06:24:37.515000+00:00</t>
+          <t>2024-08-15T23:38:05.596000+00:00</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>TargetTracking-table/gph-reminder-AlarmHigh-b43a7fb9-23b5-46fd-8bf5-7a7f139269b8</t>
+          <t>***CRITICAL*** prod iLa-Jor HA-Urbis CleanPaymentAPISingleCall API is DOWN - UNHEALTHY instances in JorUrbisHaCleanPymntSngleCApiTg TG</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>arn:aws:cloudwatch:eu-west-1:132405888043:alarm:TargetTracking-table/gph-reminder-AlarmHigh-b43a7fb9-23b5-46fd-8bf5-7a7f139269b8</t>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:***CRITICAL*** prod iLa-Jor HA-Urbis CleanPaymentAPISingleCall API is DOWN - UNHEALTHY instances in JorUrbisHaCleanPymntSngleCApiTg TG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DO NOT EDIT OR DELETE. For TargetTrackingScaling policy arn:aws:autoscaling:eu-west-1:132405888043:scalingPolicy:77caa6bd-d0c9-4abc-a812-748bd9139552:resource/dynamodb/table/gph-reminder:policyName/$gph-reminder-scaling-policy:createdBy/e9fa0b92-3c58-48bc-8a98-12fcd17e23cd.</t>
+          <t>Alarms when none healthy instances in prodJorUrbisHaCleanPymntSngleCApiTg</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>AWS/DynamoDB</t>
+          <t>AWS/ApplicationELB</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2024-07-10T06:24:17.620000+00:00</t>
+          <t>2024-08-15T23:38:08.199000+00:00</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>TargetTracking-table/gph-reminder-AlarmLow-587685a6-fcc8-46f1-b1ac-f714d43d85f9</t>
+          <t>***CRITICAL*** prod iLa-Jor HA-Urbis CleanPaymentSingleCall API is DOWN - UNHEALTHY instances in JorUrbisHaCleannPaymtSnglCApiTg TG</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>arn:aws:cloudwatch:eu-west-1:132405888043:alarm:TargetTracking-table/gph-reminder-AlarmLow-587685a6-fcc8-46f1-b1ac-f714d43d85f9</t>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:***CRITICAL*** prod iLa-Jor HA-Urbis CleanPaymentSingleCall API is DOWN - UNHEALTHY instances in JorUrbisHaCleannPaymtSnglCApiTg TG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DO NOT EDIT OR DELETE. For TargetTrackingScaling policy arn:aws:autoscaling:eu-west-1:132405888043:scalingPolicy:45eb39d5-10f3-4acb-8c3a-7961d3bf7b7d:resource/dynamodb/table/gph-reminder:policyName/$gph-reminder-scaling-policy:createdBy/1831fa40-899f-40d5-876b-34b38f6b9b8a.</t>
+          <t>Alarms when none healthy instances in prodJorUrbisHaCleannPaymtSnglCApiTg</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>AWS/DynamoDB</t>
+          <t>AWS/ApplicationELB</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2024-07-10T06:24:29.908000+00:00</t>
+          <t>2024-02-18T18:54:06.434000+00:00</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>TargetTracking-table/gph-reminder-AlarmLow-86c91123-6f73-41c2-8885-2605f965f9b5</t>
+          <t>***CRITICAL*** prod iLa-Jor HA-Urbis Clientapi API is DOWN - UNHEALTHY instances in JorUrbisHaClientapiApiTg TG</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>arn:aws:cloudwatch:eu-west-1:132405888043:alarm:TargetTracking-table/gph-reminder-AlarmLow-86c91123-6f73-41c2-8885-2605f965f9b5</t>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:***CRITICAL*** prod iLa-Jor HA-Urbis Clientapi API is DOWN - UNHEALTHY instances in JorUrbisHaClientapiApiTg TG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DO NOT EDIT OR DELETE. For TargetTrackingScaling policy arn:aws:autoscaling:eu-west-1:132405888043:scalingPolicy:77caa6bd-d0c9-4abc-a812-748bd9139552:resource/dynamodb/table/gph-reminder:policyName/$gph-reminder-scaling-policy:createdBy/e9fa0b92-3c58-48bc-8a98-12fcd17e23cd.</t>
+          <t>Alarms when none healthy instances in prodJorUrbisHaClientapiApiTg</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>AWS/DynamoDB</t>
+          <t>AWS/ApplicationELB</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2024-07-10T06:24:21.973000+00:00</t>
+          <t>2024-08-15T23:38:57.700000+00:00</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>TargetTracking-table/gph-reminder-ProvisionedCapacityHigh-0b452db0-25c6-4ee4-b088-5367ed10dd0e</t>
+          <t>***CRITICAL*** prod iLa-Jor HA-Urbis Hold API is DOWN - UNHEALTHY instances in JorUrbisHaHoldApiTg TG</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>arn:aws:cloudwatch:eu-west-1:132405888043:alarm:TargetTracking-table/gph-reminder-ProvisionedCapacityHigh-0b452db0-25c6-4ee4-b088-5367ed10dd0e</t>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:***CRITICAL*** prod iLa-Jor HA-Urbis Hold API is DOWN - UNHEALTHY instances in JorUrbisHaHoldApiTg TG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DO NOT EDIT OR DELETE. For TargetTrackingScaling policy arn:aws:autoscaling:eu-west-1:132405888043:scalingPolicy:45eb39d5-10f3-4acb-8c3a-7961d3bf7b7d:resource/dynamodb/table/gph-reminder:policyName/$gph-reminder-scaling-policy:createdBy/1831fa40-899f-40d5-876b-34b38f6b9b8a.</t>
+          <t>Alarms when none healthy instances in prodJorUrbisHaHoldApiTg</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>AWS/DynamoDB</t>
+          <t>AWS/ApplicationELB</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2024-07-10T06:24:56.761000+00:00</t>
+          <t>2024-08-15T23:38:35.771000+00:00</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>TargetTracking-table/gph-reminder-ProvisionedCapacityHigh-64530f22-b237-49d6-b89e-de95d118733b</t>
+          <t>***CRITICAL*** prod iLa-Jor HA-Urbis ReactivationAccount API is DOWN - UNHEALTHY instances in JorUrbisHaReactivationAcctApiTg TG</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>arn:aws:cloudwatch:eu-west-1:132405888043:alarm:TargetTracking-table/gph-reminder-ProvisionedCapacityHigh-64530f22-b237-49d6-b89e-de95d118733b</t>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:***CRITICAL*** prod iLa-Jor HA-Urbis ReactivationAccount API is DOWN - UNHEALTHY instances in JorUrbisHaReactivationAcctApiTg TG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DO NOT EDIT OR DELETE. For TargetTrackingScaling policy arn:aws:autoscaling:eu-west-1:132405888043:scalingPolicy:77caa6bd-d0c9-4abc-a812-748bd9139552:resource/dynamodb/table/gph-reminder:policyName/$gph-reminder-scaling-policy:createdBy/e9fa0b92-3c58-48bc-8a98-12fcd17e23cd.</t>
+          <t>Alarms when none healthy instances in prodJorUrbisHaReactivationAcctApiTg</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>AWS/DynamoDB</t>
+          <t>AWS/ApplicationELB</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2024-07-10T06:23:58.528000+00:00</t>
+          <t>2024-08-15T23:38:21.924000+00:00</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>TargetTracking-table/gph-reminder-ProvisionedCapacityLow-b5451220-5957-407f-b9bb-e15e0bd3e8bd</t>
+          <t>***CRITICAL*** prod iLa-Jor HA-Urbis StandingOrder API is DOWN - UNHEALTHY instances in JorUrbisHaStandingOrderApiTg TG</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>arn:aws:cloudwatch:eu-west-1:132405888043:alarm:TargetTracking-table/gph-reminder-ProvisionedCapacityLow-b5451220-5957-407f-b9bb-e15e0bd3e8bd</t>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:***CRITICAL*** prod iLa-Jor HA-Urbis StandingOrder API is DOWN - UNHEALTHY instances in JorUrbisHaStandingOrderApiTg TG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DO NOT EDIT OR DELETE. For TargetTrackingScaling policy arn:aws:autoscaling:eu-west-1:132405888043:scalingPolicy:77caa6bd-d0c9-4abc-a812-748bd9139552:resource/dynamodb/table/gph-reminder:policyName/$gph-reminder-scaling-policy:createdBy/e9fa0b92-3c58-48bc-8a98-12fcd17e23cd.</t>
+          <t>Alarms when none healthy instances in prodJorUrbisHaStandingOrderApiTg</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>AWS/DynamoDB</t>
+          <t>AWS/ApplicationELB</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2024-07-10T06:23:19.795000+00:00</t>
+          <t>2024-08-15T23:38:26.750000+00:00</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>TargetTracking-table/gph-reminder-ProvisionedCapacityLow-dd4ab6f3-b358-45f2-a82e-1916f5c4a4c3</t>
+          <t>***CRITICAL*** prod iLa-Jor HA-Urbis TermDeposit API is DOWN - UNHEALTHY instances in JorUrbisHaTermDepositApiTg TG</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>arn:aws:cloudwatch:eu-west-1:132405888043:alarm:TargetTracking-table/gph-reminder-ProvisionedCapacityLow-dd4ab6f3-b358-45f2-a82e-1916f5c4a4c3</t>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:***CRITICAL*** prod iLa-Jor HA-Urbis TermDeposit API is DOWN - UNHEALTHY instances in JorUrbisHaTermDepositApiTg TG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DO NOT EDIT OR DELETE. For TargetTrackingScaling policy arn:aws:autoscaling:eu-west-1:132405888043:scalingPolicy:45eb39d5-10f3-4acb-8c3a-7961d3bf7b7d:resource/dynamodb/table/gph-reminder:policyName/$gph-reminder-scaling-policy:createdBy/1831fa40-899f-40d5-876b-34b38f6b9b8a.</t>
+          <t>Alarms when none healthy instances in prodJorUrbisHaTermDepositApiTg</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>AWS/DynamoDB</t>
+          <t>AWS/ApplicationELB</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2024-07-10T06:24:19.153000+00:00</t>
+          <t>2024-08-15T23:38:42.824000+00:00</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>aws-cmk-changes</t>
+          <t>***CRITICAL*** prod iLa-Jor HA-Urbis TermDepositSchedule API is DOWN - UNHEALTHY instances in JorUrbisHaTermDpstScheduleApiTg TG</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>arn:aws:cloudwatch:eu-west-1:132405888043:alarm:aws-cmk-changes</t>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:***CRITICAL*** prod iLa-Jor HA-Urbis TermDepositSchedule API is DOWN - UNHEALTHY instances in JorUrbisHaTermDpstScheduleApiTg TG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Triggered by AWS CMK changes</t>
+          <t>Alarms when none healthy instances in prodJorUrbisHaTermDpstScheduleApiTg</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>CloudTrailMetrics</t>
+          <t>AWS/ApplicationELB</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2024-07-27T01:40:17.681000+00:00</t>
+          <t>2024-08-15T23:39:43.728000+00:00</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>aws-config-changes</t>
+          <t>***CRITICAL*** prod iLa-Jor HA-Urbis cabac API is DOWN - UNHEALTHY instances in JorUrbisHaCabacApiTg TG</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>arn:aws:cloudwatch:eu-west-1:132405888043:alarm:aws-config-changes</t>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:***CRITICAL*** prod iLa-Jor HA-Urbis cabac API is DOWN - UNHEALTHY instances in JorUrbisHaCabacApiTg TG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Triggered by AWS IAM authorization config changes</t>
+          <t>Alarms when none healthy instances in prodJorUrbisHaCabacApiTg</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>CloudTrailMetrics</t>
+          <t>AWS/ApplicationELB</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2024-07-28T14:05:15.179000+00:00</t>
+          <t>2024-08-15T23:39:18.776000+00:00</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>aws-console-signin-nomfa</t>
+          <t>***CRITICAL*** prod iLa-Jor HA-Urbis cashwaste API is DOWN - UNHEALTHY instances in JorUrbisHaCashwasteApiTg TG</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>arn:aws:cloudwatch:eu-west-1:132405888043:alarm:aws-console-signin-nomfa</t>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:***CRITICAL*** prod iLa-Jor HA-Urbis cashwaste API is DOWN - UNHEALTHY instances in JorUrbisHaCashwasteApiTg TG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Triggered by sign-in requests made without MFA</t>
+          <t>Alarms when none healthy instances in prodJorUrbisHaCashwasteApiTg</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>CloudTrailMetrics</t>
+          <t>AWS/ApplicationELB</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2024-11-19T07:24:02.244000+00:00</t>
+          <t>2024-08-15T23:39:47.612000+00:00</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>aws-iam-authorization-activity</t>
+          <t>AFAQ Load Data Error</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>arn:aws:cloudwatch:eu-west-1:132405888043:alarm:aws-iam-authorization-activity</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>TF managed alarm</t>
-        </is>
-      </c>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:AFAQ Load Data Error</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>CloudTrailMetrics</t>
+          <t>AfaqErrorMetric</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2024-11-19T07:19:09.642000+00:00</t>
+          <t>2024-11-19T05:47:49.857000+00:00</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>aws-root-account-usage</t>
+          <t>AFAQ Transactions Alarm</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>arn:aws:cloudwatch:eu-west-1:132405888043:alarm:aws-root-account-usage</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Triggered by AWS Root Account usage</t>
-        </is>
-      </c>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:AFAQ Transactions Alarm</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>CloudTrailMetrics</t>
+          <t>AfaqErrorMetric</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2024-07-01T06:05:37.394000+00:00</t>
+          <t>2024-11-19T05:37:48.622000+00:00</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>aws-route-table-changes</t>
+          <t>AWS-IPMonitoring-Ping</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>arn:aws:cloudwatch:eu-west-1:132405888043:alarm:aws-route-table-changes</t>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:AWS-IPMonitoring-Ping</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Triggered by AWS Route Table config changes</t>
+          <t xml:space="preserve">AWS IP Monitoring Ping failed </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>CloudTrailMetrics</t>
+          <t>AWSSupport-SetupIPMonitoringFromVPC/subnet-0c8524b4b143f0e28/i-0f70bcf949067af6c</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2024-09-11T08:16:26.776000+00:00</t>
+          <t>2024-02-12T18:12:34.978000+00:00</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>aws-s3-bucket-changes</t>
+          <t>AWS-IPMonitoringTool Ping is back OK</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>arn:aws:cloudwatch:eu-west-1:132405888043:alarm:aws-s3-bucket-changes</t>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:AWS-IPMonitoringTool Ping is back OK</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Triggered by AWS S3 Bucket config changes</t>
+          <t>AWS-IPMonitoringTool Ping is back OK</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>CloudTrailMetrics</t>
+          <t>AWSSupport-SetupIPMonitoringFromVPC/subnet-0c8524b4b143f0e28/i-0f70bcf949067af6c</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2024-10-29T11:33:45.739000+00:00</t>
+          <t>2024-02-12T18:21:19.769000+00:00</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>aws-security-group-changes</t>
+          <t>Api Jor Tmsx-client Liveness Probe Failed</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>arn:aws:cloudwatch:eu-west-1:132405888043:alarm:aws-security-group-changes</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Triggered by AWS security group(s) config changes</t>
-        </is>
-      </c>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:Api Jor Tmsx-client Liveness Probe Failed</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>CloudTrailMetrics</t>
+          <t>LogMetrics</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2024-11-18T06:38:03.795000+00:00</t>
+          <t>2024-10-01T13:47:03.533000+00:00</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>aws-unauthorized-api-calls</t>
+          <t>Api Jor Tmsx-client Readiness Probe Failed</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>arn:aws:cloudwatch:eu-west-1:132405888043:alarm:aws-unauthorized-api-calls</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Triggered by UnauthorizedOperations or AccessDenied</t>
-        </is>
-      </c>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:Api Jor Tmsx-client Readiness Probe Failed</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>CloudTrailMetrics</t>
+          <t>LogMetrics</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2024-07-31T04:09:40.398000+00:00</t>
+          <t>2024-10-01T13:47:15.876000+00:00</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>aws-vpc-changes</t>
+          <t>Api Jor Tmsx-jo Liveness Probe Failed</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>arn:aws:cloudwatch:eu-west-1:132405888043:alarm:aws-vpc-changes</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Triggered by AWS VPC(s) environment config changes</t>
-        </is>
-      </c>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:Api Jor Tmsx-jo Liveness Probe Failed</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>CloudTrailMetrics</t>
+          <t>LogMetrics</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2024-05-21T09:09:49.217000+00:00</t>
+          <t>2024-08-26T16:25:34.586000+00:00</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>Api Jor Tmsx-jo Readiness Probe Failed</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:Api Jor Tmsx-jo Readiness Probe Failed</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>LogMetrics</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2024-11-12T23:25:21.448000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>BB_Performance</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:BB_Performance</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Lambda-Ping/HTTP</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2024-10-28T10:24:29.995000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>BH: API Aurora DB - 1</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:BH: API Aurora DB - 1</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"># WARNING: (BH) API Aurora DB1 ==DBLOAD IS HIGH!!== </t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>AWS/RDS</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2024-06-13T11:37:29.822000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>BH: API Aurora DB - 3</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:BH: API Aurora DB - 3</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"># WARNING: (BH) API Aurora DB3 == DBLOAD IS HIGH!! == </t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>AWS/RDS</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2024-10-24T07:07:54.603000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>BackBase Liveness Probe Failed</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:BackBase Liveness Probe Failed</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>LogMetrics</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2024-10-17T16:44:55.495000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>BackBase Readiness Probe Failed</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:BackBase Readiness Probe Failed</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>LogMetrics</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2024-10-17T16:44:55.225000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Benefit Connection Closed</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:Benefit Connection Closed</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>LogMetrics</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2024-09-08T08:00:12.871000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Benefit Successfully logged in</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:Benefit Successfully logged in</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Benefit Successfully logged in</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>LogMetrics</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2024-09-08T07:50:15.954000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Benefit Successfully logged off</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:Benefit Successfully logged off</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Benefit Successfully logged off</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>LogMetrics</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2024-09-08T07:50:13.156000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Benefit Timeout connecting</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:Benefit Timeout connecting</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>LogMetrics</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2024-09-05T23:17:31.984000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Billers Error Code 104</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:Billers Error Code 104</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>LogMetrics</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2024-11-08T09:33:44.351000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>CBS Hold Queue Greater than 100</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:CBS Hold Queue Greater than 100</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>LogMetrics</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2024-10-31T08:47:33.804000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>CBS Incoming Queue Greater than 100</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:CBS Incoming Queue Greater than 100</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>TMSX Alarm</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>LogMetrics</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2024-10-31T08:47:30.397000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>CBS to EFTS Mapping Error - Direct Debit</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:CBS to EFTS Mapping Error - Direct Debit</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>LogMetrics</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2024-10-31T09:02:30.015000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>CBS to EFTS error code mapping not found</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:CBS to EFTS error code mapping not found</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Created by Ebrahim Albasri</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>LogMetrics</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2024-09-05T21:44:32.273000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Change on Raffle database script function</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:Change on Raffle database script function</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Detected some changes to the Raffle db function script</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>AuditLogs</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2024-11-10T09:15:48.800000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Dormacy: FAILED INVOCATIONS</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:Dormacy: FAILED INVOCATIONS</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"># Triggering Dormancy Job Failed 
+</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>AWS/Events</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2024-01-02T08:24:30.033000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Dormacy: Lambda Job Error</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:Dormacy: Lambda Job Error</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">**Lambda Job Error**
+</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>AWS/Lambda</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2024-11-19T02:22:44.953000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Dormancy Daily Run No Results</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:Dormancy Daily Run No Results</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"># Dormancy Daily Run No Results
+Related to /aws/lambda/dormancy-detection-dailyRun
+</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>LogMetrics</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2024-11-19T02:32:15.309000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Dormancy Daily Run Task Timed Out</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:Dormancy Daily Run Task Timed Out</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Related to /aws/lambda/dormancy-detection-dailyRun</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>LogMetrics</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2024-11-19T02:32:48.753000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>EA6-Reference-document-is-not-found</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:EA6-Reference-document-is-not-found</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>LogMetrics</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>2024-09-08T08:00:53.446000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>EP106 Invalid value - Direct Debit</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:EP106 Invalid value - Direct Debit</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>LogMetrics</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>2024-09-08T08:00:21.761000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>ERROR Code 104</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:ERROR Code 104</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>LogMetrics</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2024-11-15T00:55:53.996000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>ERROR:  ILAAPI-SFTP-LAMBDA</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:ERROR:  ILAAPI-SFTP-LAMBDA</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t># ERROR: ILAAPI-SFTP-LAMBDA</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>AWS/Lambda</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2024-11-18T13:46:18.746000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Fawri Transfer Error 104</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:Fawri Transfer Error 104</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>LogMetrics</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2024-11-19T06:54:02.271000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Fawri+-Incoming-Timeouts</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:Fawri+-Incoming-Timeouts</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>LogMetrics</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>2024-09-08T07:45:35.771000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Fawri+-Outgoing-Timeouts</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:Fawri+-Outgoing-Timeouts</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>LogMetrics</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2024-09-08T07:45:32.355000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>GW-ACH Duration &gt; 2</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:GW-ACH Duration &gt; 2</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>LogMetrics</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>2024-10-31T09:02:04.128000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>ISD_FAILEDONBOARDING</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:ISD_FAILEDONBOARDING</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>ISDFailedOnboarding</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>2024-11-14T17:23:43.501000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Incoming EFTS timeout</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:Incoming EFTS timeout</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>LogMetrics</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>2024-10-23T00:24:23.254000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>JOR: API Aurora DB1 - DBLoad</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:JOR: API Aurora DB1 - DBLoad</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"># WARNING: (JOR) API Aurora DB1 ==DBLOAD IS HIGH!!== </t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>AWS/RDS</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>2024-05-03T19:55:47.830000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>JOR: API Aurora DB2 - DBLoad</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:JOR: API Aurora DB2 - DBLoad</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"># WARNING: (JOR) API Aurora DB2 ==DBLOAD IS HIGH!!== </t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>AWS/RDS</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>2024-08-18T10:33:46.748000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Logon Refusal by Benefit</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:Logon Refusal by Benefit</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Logon Refusal by Benefit</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>LogMetrics</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>2024-10-31T08:25:38.392000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>MoEngage1002Error</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:MoEngage1002Error</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>MoEngageErrors</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>2024-11-18T05:40:51.961000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Network Dip</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:Network Dip</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>AWS/EC2</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>2024-06-01T20:21:24.155000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Notification Worker Error</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:Notification Worker Error</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>LogMetrics</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>2024-11-19T08:40:57.568000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>PCI - Unhealthy instances</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:PCI - Unhealthy instances</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>One or more PCI instances Unhealthy pls check the PCI ASG and ALB TG</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>AWS/NetworkELB</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>2024-10-31T02:36:25.839000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Payment Exception on API/Urbis (unmapped exceptions)</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:Payment Exception on API/Urbis (unmapped exceptions)</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Payment Exception on API/Urbis (unmapped exceptions)</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>LogMetrics</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>2024-11-19T02:09:04.650000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>PowerBi-Servie-Test</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:PowerBi-Servie-Test</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">one of the services is down. </t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>2024-07-11T17:12:05.273000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Raffle DATABASE Changes</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:Raffle DATABASE Changes</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Detected some changes to the Raffle db</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>AuditLogs</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>2024-11-10T09:13:34.996000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Services Status Check</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:Services Status Check</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>PowerBI Gateway Service is NOT running
+Requested By Mohamed Abdalmagd</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>2024-07-11T17:12:51.345000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Synthetics-Alarm-tarabut-health-1</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:Synthetics-Alarm-tarabut-health-1</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Synthetics alarm metric: Failed  GreaterThanOrEqualToThreshold 1</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>CloudWatchSynthetics</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>2024-11-18T19:28:22.633000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>TCP: UrbisDBReadReplica1HealthCheck</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:TCP: UrbisDBReadReplica1HealthCheck</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Alarm for Route53 Health Check</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Route53PrivateHealthCheck</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>2024-03-21T23:55:06.882000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>TCP: UrbisDBReadReplica2HealthCheck</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:TCP: UrbisDBReadReplica2HealthCheck</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Alarm for Route53 Health Check</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Route53PrivateHealthCheck</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>2024-06-11T13:22:33.853000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>TMSX-EFTS-DiskSpaceBelow930</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:TMSX-EFTS-DiskSpaceBelow930</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>AWS/RDS</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>2024-11-10T10:09:16.446000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>TMSX-GW-Output-Size</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:TMSX-GW-Output-Size</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>LogMetrics</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>2024-10-31T08:47:32.869000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>TMSX-Unable to connect to Benefit</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:TMSX-Unable to connect to Benefit</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>LogMetrics</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>2024-09-05T23:08:50.293000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>TMSX_Cluster_Timeout</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:TMSX_Cluster_Timeout</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>TMSX_Cluster_Timeout</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>LogMetrics</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>2024-10-31T08:53:27.995000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>TMSX_EFTS_ROUTING_ENGINE_STOPPED</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:TMSX_EFTS_ROUTING_ENGINE_STOPPED</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>TMSX_EFTS_ROUTING_ENGINE_STOPPED</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>LogMetrics</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>2024-03-31T08:33:21.471000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>TMSX_EL202</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:TMSX_EL202</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Created by Ebrahim Albasri</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>LogMetrics</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>2024-09-05T21:32:30.058000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>TMSX_OUTPUT_Q_SIZE</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:TMSX_OUTPUT_Q_SIZE</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Created By Anmar</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>LogMetrics</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>2024-10-31T09:02:29.951000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>TMSX_PING_URL_GW_10_171_240_100_No_HTTP_Resp</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:TMSX_PING_URL_GW_10_171_240_100_No_HTTP_Resp</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>TMSX_PING_URL_GW_10_171_240_100_No_HTTP_Resp</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>LogMetrics</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>2024-05-14T01:56:16.455000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Transaction Error with NullPointerException</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:Transaction Error with NullPointerException</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>LogMetrics</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>2024-11-19T01:16:44.700000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Transaction one Service Down</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:Transaction one Service Down</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>LogMetrics</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>2024-11-19T02:18:58.159000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Transactions-Service Liveness Probe Failed</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:Transactions-Service Liveness Probe Failed</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Transactions-Service Liveness Probe Failed</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>LogMetrics</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>2024-08-15T23:16:41.292000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Transactions-Service Readiness Probe Failed</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:Transactions-Service Readiness Probe Failed</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Transactions-Service Readiness Probe Failed</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>LogMetrics</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2024-10-25T00:53:45.083000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Transafer send Notification not process</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:Transafer send Notification not process</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>LogMetrics</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>2024-11-19T08:33:15.824000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Transfer API - An error has occurred</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:Transfer API - An error has occurred</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Created by: Ebrahim Albasri</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>LogMetrics</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>2024-10-01T20:34:53.309000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Transfer facing error Connection refused</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:Transfer facing error Connection refused</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>LogMetrics</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>2024-11-18T23:58:33.383000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>URBIS_JOR_CASHWASTE_ERROR</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:URBIS_JOR_CASHWASTE_ERROR</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr"/>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>LogMetrics</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>2024-11-17T09:12:42.922000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>URBIS_JOR_SERVICE_DOWN</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:URBIS_JOR_SERVICE_DOWN</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr"/>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>LogMetrics</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>2024-11-05T08:45:55.074000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Urbis AZ01 Prod ATM-API DOWN</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:Urbis AZ01 Prod ATM-API DOWN</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Alarms when there is unhealthy target instance in Prod-AZ Standby ATM-API Targer Group</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>AWS/ApplicationELB</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>2024-05-30T11:29:31.747000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Urbis AZ02 Prod ATM-API DOWN</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:Urbis AZ02 Prod ATM-API DOWN</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Alarms when there is unhealthy target instance in Prod-AZ ATM-API Targer Group</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>AWS/ApplicationELB</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>2024-05-30T11:29:06.211000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Urbis Active/Active Prod ATM-API Targets Response Time exceeding 7 seconds</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:Urbis Active/Active Prod ATM-API Targets Response Time exceeding 7 seconds</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Urbis ATM-API Target Response Time exceeding 7 seconds
+Check the target group UrbisATMapiApiTg Metrics for more details.
+Check Urbis logs too.</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>AWS/ApplicationELB</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>2024-04-05T02:40:32.103000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Urbis Active/Active Prod ATM-API Unhealthy Instances</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:Urbis Active/Active Prod ATM-API Unhealthy Instances</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Urbis Active/Active Prod ATM-API Unhealthy Instances
+The TG UrbisATMapiApiTg with 2 instances Urbis-API AZ1 &amp; AZ2 in Active/Active mode behind the ALB HaUrbis-ALB</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>AWS/ApplicationELB</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>2024-09-26T20:16:33.577000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>WAF_Allowed_Traffic_High</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:WAF_Allowed_Traffic_High</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr"/>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>AWS/WAFV2</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>2024-11-18T01:05:28.026000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>WAF_Blocked_Traffic_Too_High</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:WAF_Blocked_Traffic_Too_High</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>WAF_Blocked_Traffic_Too_High</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>AWS/WAFV2</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>2024-11-19T08:36:10.930000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>[BH] Urbis Read Replica 2 CPU Utilization</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:[BH] Urbis Read Replica 2 CPU Utilization</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>AWS/RDS</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>2024-10-06T07:13:55.628000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>api-aurora-1-highCPUUtilization</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:api-aurora-1-highCPUUtilization</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>AWS/RDS</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>2024-04-28T16:44:05.480000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>aws-console-signin-nomfa</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:aws-console-signin-nomfa</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Triggered by sign-in requests made without MFA</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>CloudTrailMetrics</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>2024-11-19T08:36:17.090000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>aws-iam-authorization-activity</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:aws-iam-authorization-activity</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>TF managed alarm</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>CloudTrailMetrics</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>2024-11-19T05:14:13.290000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>aws-network-acl-config-changes</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:aws-network-acl-config-changes</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Triggered by AWS Network ACL(s) config changes</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>CloudTrailMetrics</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>2024-03-05T12:17:55.322000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>aws-root-account-usage</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:aws-root-account-usage</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Triggered by AWS Root Account usage</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>CloudTrailMetrics</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>2024-06-03T14:06:00.656000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>aws-route-table-changes</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:aws-route-table-changes</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Triggered by AWS Route Table config changes</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>CloudTrailMetrics</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>2024-10-27T22:45:23.170000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>aws-s3-bucket-changes</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:aws-s3-bucket-changes</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Triggered by AWS S3 Bucket config changes</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>CloudTrailMetrics</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>2024-10-21T06:38:04.987000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>aws-security-group-changes</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:aws-security-group-changes</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Triggered by AWS security group(s) config changes</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>CloudTrailMetrics</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>2024-11-18T13:29:56.839000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>aws-vpc-changes</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:aws-vpc-changes</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Triggered by AWS VPC(s) environment config changes</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>CloudTrailMetrics</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>2024-03-05T12:17:35.585000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
           <t>aws-vpc-gateway-changes</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>arn:aws:cloudwatch:eu-west-1:132405888043:alarm:aws-vpc-gateway-changes</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:aws-vpc-gateway-changes</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
         <is>
           <t>Triggered by VPC Customer/Internet Gateway changes</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D116" t="inlineStr">
         <is>
           <t>CloudTrailMetrics</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>2024-05-21T09:07:55.018000+00:00</t>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>2024-03-05T12:17:06.711000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>awsec2-i-061a7216cf37c8950-GreaterThanOrEqualToThreshold-CPUUtilization</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:awsec2-i-061a7216cf37c8950-GreaterThanOrEqualToThreshold-CPUUtilization</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Created from EC2 Console</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>AWS/EC2</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>2024-05-30T11:37:07.632000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>awsec2-i-066e0dc9fcc6bd8af-GreaterThanOrEqualToThreshold-CPUUtilization</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:awsec2-i-066e0dc9fcc6bd8af-GreaterThanOrEqualToThreshold-CPUUtilization</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Created from EC2 Console</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>AWS/EC2</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>2024-06-01T20:29:07.133000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>awsredshift-reporting-redshift-cluster-PercentageDiskSpaceUsed-ALL</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:awsredshift-reporting-redshift-cluster-PercentageDiskSpaceUsed-ALL</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>awsredshift-reporting-redshift-cluster-PercentageDiskSpaceUsed-ALL</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>AWS/Redshift</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>2024-11-07T16:41:41.967000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>crm_audit_trail_archive_lambda_alarm</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:crm_audit_trail_archive_lambda_alarm</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>AWS/Lambda</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>2024-11-19T08:22:45.959000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>neo-alarms-sms-prod</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:neo-alarms-sms-prod</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Triggered by AWS reaching SMS limit</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>AWS/SNS</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>2024-02-01T01:01:11.836000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>power BI storage Utilization</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:power BI storage Utilization</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Storage Utilization is HIGH </t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>2024-02-02T12:10:46.193000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>rds-a24-rr1-anomalousConnectionCount</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:rds-a24-rr1-anomalousConnectionCount</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Anomalous database connection count detected. Something unusual is happening.</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>2024-07-06T01:58:13.548000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>rds-a24-writer-anomalousConnectionCount</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:rds-a24-writer-anomalousConnectionCount</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Anomalous database connection count detected. Something unusual is happening.</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>2024-10-25T02:43:53.445000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>rds-api-aurora-1-anomalousConnectionCount</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:rds-api-aurora-1-anomalousConnectionCount</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Anomalous database connection count detected. Something unusual is happening.</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>2024-08-04T03:09:09.254000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>rds-api-aurora-3-anomalousConnectionCount</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:rds-api-aurora-3-anomalousConnectionCount</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Anomalous database connection count detected. Something unusual is happening.</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>2024-08-27T19:20:17.809000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>rds-api-aurora-3-highCPUUtilization</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:rds-api-aurora-3-highCPUUtilization</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>AWS/RDS</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>2024-10-24T07:08:07.582000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>rds-api-jor-aurora-1-anomalousConnectionCount</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:rds-api-jor-aurora-1-anomalousConnectionCount</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Anomalous database connection count detected. Something unusual is happening.</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>2024-06-03T15:18:14.196000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>rds-api-jor-aurora-1-highCPUUtilization</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:rds-api-jor-aurora-1-highCPUUtilization</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>AWS/RDS</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>2024-04-28T16:56:04.027000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>rds-api-jor-aurora-2-highCPUUtilization</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:rds-api-jor-aurora-2-highCPUUtilization</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>AWS/RDS</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>2024-10-27T13:19:53.462000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>rds-echeque-anomalousConnectionCount</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:rds-echeque-anomalousConnectionCount</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Anomalous database connection count detected. Something unusual is happening.</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>2024-10-28T10:40:00.757000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>rds-pci-aurora-1-anomalousConnectionCount</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:rds-pci-aurora-1-anomalousConnectionCount</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Anomalous database connection count detected. Something unusual is happening.</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>2024-09-15T12:45:32.167000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>rds-pci-aurora-2-anomalousConnectionCount</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:rds-pci-aurora-2-anomalousConnectionCount</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Anomalous database connection count detected. Something unusual is happening.</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>2024-05-13T15:56:13.315000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>rds-pmaw91n4wfo8ya-highCPUUtilization</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:rds-pmaw91n4wfo8ya-highCPUUtilization</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Average database CPU utilization is too high.</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>AWS/RDS</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>2024-11-10T10:12:10.072000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>rds-pmaw91n4wfo8ya-highDiskQueueDepth</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:rds-pmaw91n4wfo8ya-highDiskQueueDepth</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Average database disk queue depth is too high, performance may be negatively impacted.</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>AWS/RDS</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>2024-11-10T10:12:05.836000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>rds-pmaw91n4wfo8ya-lowFreeStorageSpace</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:rds-pmaw91n4wfo8ya-lowFreeStorageSpace</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Average database free storage space is too low and may fill up soon.</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>AWS/RDS</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>2024-11-10T10:12:53.407000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>rds-pmaw91n4wfo8ya-lowFreeableMemory</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:rds-pmaw91n4wfo8ya-lowFreeableMemory</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Average database freeable memory is too low, performance may be negatively impacted.</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>AWS/RDS</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>2024-11-10T10:12:20.982000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>rds-pme5v4x54sod5w-anomalousConnectionCount</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:rds-pme5v4x54sod5w-anomalousConnectionCount</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Anomalous database connection count detected. Something unusual is happening.</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>2024-10-03T02:28:06.593000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>rds-pme5v4x54sod5w-highCPUUtilization</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:rds-pme5v4x54sod5w-highCPUUtilization</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Average database CPU utilization is too high.</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>AWS/RDS</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>2024-10-06T01:18:26.247000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>rds-pme5v4x54sod5w-highDiskQueueDepth</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:rds-pme5v4x54sod5w-highDiskQueueDepth</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Average database disk queue depth is too high, performance may be negatively impacted.</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>AWS/RDS</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>2024-10-06T01:18:50.660000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>rds-pme5v4x54sod5w-lowEBSBurstBalance</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:rds-pme5v4x54sod5w-lowEBSBurstBalance</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Average database storage burst balance is too low, a negative performance impact is imminent.</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>AWS/RDS</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>2024-10-03T01:21:22.318000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>rds-pme5v4x54sod5w-lowFreeStorageSpace</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:rds-pme5v4x54sod5w-lowFreeStorageSpace</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Average database free storage space is too low and may fill up soon.</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>AWS/RDS</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>2024-10-06T01:18:30.611000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>rds-pme5v4x54sod5w-lowFreeableMemory</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:rds-pme5v4x54sod5w-lowFreeableMemory</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Average database freeable memory is too low, performance may be negatively impacted.</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>AWS/RDS</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>2024-10-06T01:18:36.857000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>rds-tmsx-efts-anomalousConnectionCount</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:rds-tmsx-efts-anomalousConnectionCount</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Anomalous database connection count detected. Something unusual is happening.</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>2024-11-10T11:13:43.898000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>rds-tmsx-efts-highCPUUtilization</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:rds-tmsx-efts-highCPUUtilization</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>TMSX EFTS RDS Average database CPU utilization is too high.</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>AWS/RDS</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>2024-11-10T10:10:44.453000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>rds-tmsx-efts-highDiskQueueDepth</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:rds-tmsx-efts-highDiskQueueDepth</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Average database disk queue depth is too high, performance may be negatively impacted.</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>AWS/RDS</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>2024-11-10T10:13:23.120000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>rds-tmsx-efts-lowEBSBurstBalance</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:rds-tmsx-efts-lowEBSBurstBalance</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Average database storage burst balance is too low, a negative performance impact is imminent.</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>AWS/RDS</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>2024-09-08T11:17:24.938000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>rds-tmsx-efts-lowFreeStorageSpace</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:rds-tmsx-efts-lowFreeStorageSpace</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Average database free storage space is too low and may fill up soon.</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>AWS/RDS</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>2024-11-10T10:13:07.342000+00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>rds-tmsx-efts-lowFreeableMemory</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>arn:aws:cloudwatch:eu-west-1:103883035216:alarm:rds-tmsx-efts-lowFreeableMemory</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Average database freeable memory is too low, performance may be negatively impacted.</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>AWS/RDS</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>2024-11-10T10:13:38.007000+00:00</t>
         </is>
       </c>
     </row>
